--- a/data/trans_orig/P34B03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34B03-Provincia-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7155578029118302</v>
+        <v>0.7014910159449858</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.179664094698587</v>
+        <v>1.195091472147488</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8536641379352831</v>
+        <v>0.8583719008499786</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4090683400722152</v>
+        <v>0.4154574058630568</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5108345458797283</v>
+        <v>0.4954676932883576</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3754640962044851</v>
+        <v>0.3753139617762818</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6100875480381687</v>
+        <v>0.6063445383677822</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8946429021277175</v>
+        <v>0.8829706867366</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6456071087531526</v>
+        <v>0.654146701305568</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.128206494098515</v>
+        <v>1.15068019935978</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.683573299704474</v>
+        <v>1.686471421195776</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.389993693451341</v>
+        <v>1.368726642528571</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8108154514601993</v>
+        <v>0.8025752000345361</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8924430722273431</v>
+        <v>0.8831228176777818</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6190456036076928</v>
+        <v>0.637319455612223</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8992493836278765</v>
+        <v>0.8947944373463784</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.221803969396621</v>
+        <v>1.21062540051616</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9445950250859426</v>
+        <v>0.9598555679448323</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.760032428721968</v>
+        <v>0.7579384300328669</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7160899345487203</v>
+        <v>0.7089848350739825</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6180120824690071</v>
+        <v>0.6066403294474203</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2156498811702782</v>
+        <v>0.2140830004494774</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3720207598954271</v>
+        <v>0.3645249838224816</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1946038015793875</v>
+        <v>0.1902652489948264</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5084422482257006</v>
+        <v>0.5152186866384719</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5656910632536343</v>
+        <v>0.5699309733216138</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4175951919446088</v>
+        <v>0.4191071702389847</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.128097462318927</v>
+        <v>1.119978727912814</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.03644058685845</v>
+        <v>1.012053345381539</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9830686099622468</v>
+        <v>0.9745649588038879</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4038995270877865</v>
+        <v>0.3926096244134155</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.60532034972532</v>
+        <v>0.5866153707355655</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3648282149176346</v>
+        <v>0.35982737511877</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7203998657413897</v>
+        <v>0.719286629469343</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7716920065117781</v>
+        <v>0.7622690040315353</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.635811916676695</v>
+        <v>0.6273847807850501</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.5527408437297775</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.3299894274886096</v>
+        <v>0.3299894274886097</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.3483828595508668</v>
@@ -878,7 +878,7 @@
         <v>0.7460650862047239</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.6264705592033044</v>
+        <v>0.6264705592033043</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4127491623125709</v>
+        <v>0.4109224480312236</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7746790889278347</v>
+        <v>0.7688832734329328</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7665547969685</v>
+        <v>0.7602868741138357</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1004853159538994</v>
+        <v>0.1026662673571243</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4175817606953658</v>
+        <v>0.4249261615597013</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2379458162898</v>
+        <v>0.2356275785096007</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2784921406088958</v>
+        <v>0.2736279612298061</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6322892467726343</v>
+        <v>0.619166087406445</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5161290838069299</v>
+        <v>0.5061189863290418</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7016110749188564</v>
+        <v>0.6923172651343603</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.160216527693617</v>
+        <v>1.172630265555806</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.204297969395504</v>
+        <v>1.20729267764035</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.268398892231763</v>
+        <v>0.2733043660111719</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7168743400090043</v>
+        <v>0.7064657664432564</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4613889757294165</v>
+        <v>0.4539617556077157</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.444601915686555</v>
+        <v>0.4320029006555868</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8782282357954727</v>
+        <v>0.8692644803068552</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7640145845267545</v>
+        <v>0.7564100785772694</v>
       </c>
     </row>
     <row r="13">
@@ -969,7 +969,7 @@
         <v>0.9039208892067405</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.759020698034602</v>
+        <v>0.7590206980346019</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.2998688968731913</v>
@@ -978,7 +978,7 @@
         <v>0.451770700225862</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.6362755667585975</v>
+        <v>0.6362755667585978</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.5584703228424649</v>
@@ -987,7 +987,7 @@
         <v>0.6726752292740154</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.6938801166885128</v>
+        <v>0.6938801166885126</v>
       </c>
     </row>
     <row r="14">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6216880710347854</v>
+        <v>0.631590823933498</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7186449988874556</v>
+        <v>0.716922936407747</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5749101366288691</v>
+        <v>0.5809311996065313</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2072987617496113</v>
+        <v>0.2097189681029062</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3375441980768196</v>
+        <v>0.3448950054477007</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5026083593731631</v>
+        <v>0.4987580154395566</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4488026848471626</v>
+        <v>0.4453574070637052</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5677155132464013</v>
+        <v>0.5645796773227091</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5767781126058066</v>
+        <v>0.5822543105373543</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.063892476724761</v>
+        <v>1.068825101949261</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.124534981446432</v>
+        <v>1.116864277121238</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.000521603084181</v>
+        <v>1.017850869463057</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4322334186208135</v>
+        <v>0.4268685807850705</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6126412524184602</v>
+        <v>0.6072569115041234</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8108356548432059</v>
+        <v>0.8270778146661272</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6899592594021801</v>
+        <v>0.6849196938661638</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8169773694025648</v>
+        <v>0.8065357853867582</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.831716312227803</v>
+        <v>0.8580974996407293</v>
       </c>
     </row>
     <row r="16">
@@ -1096,7 +1096,7 @@
         <v>0.3628153040151885</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.5710548305031632</v>
+        <v>0.5710548305031633</v>
       </c>
     </row>
     <row r="17">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4737499775757142</v>
+        <v>0.4763769447351814</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3178714229325448</v>
+        <v>0.2992150506234382</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6388920381174258</v>
+        <v>0.6384437257271592</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2540033444761621</v>
+        <v>0.2511855055213834</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1474326015113669</v>
+        <v>0.1459397494564152</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2089826924867423</v>
+        <v>0.2061922782105169</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4049372219428767</v>
+        <v>0.4002982486196812</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2553317870254027</v>
+        <v>0.2665870777641993</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4658738205598701</v>
+        <v>0.4483477381232984</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9357974896157815</v>
+        <v>0.8970816332919389</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7100329977572524</v>
+        <v>0.6926571842608387</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.157842671979876</v>
+        <v>1.149147409025841</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5681629071987853</v>
+        <v>0.6013868918287654</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3929825648110271</v>
+        <v>0.4108326283504982</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4114407966765027</v>
+        <v>0.4097709935538205</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.661597200849834</v>
+        <v>0.6665646457906444</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4930251490044913</v>
+        <v>0.5005895505801563</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7312000241664974</v>
+        <v>0.7225879670395667</v>
       </c>
     </row>
     <row r="19">
@@ -1187,7 +1187,7 @@
         <v>1.015987958901124</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.5364463392845453</v>
+        <v>0.5364463392845452</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.2492436623572213</v>
@@ -1196,7 +1196,7 @@
         <v>0.4606865423360154</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.2419213845765364</v>
+        <v>0.2419213845765363</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.476765876579638</v>
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5297405623822434</v>
+        <v>0.5028776784977802</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7907827919479983</v>
+        <v>0.8016780072645429</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3829502870446511</v>
+        <v>0.3771010267710704</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1589854395022313</v>
+        <v>0.1605785800251125</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3327407381793038</v>
+        <v>0.3208327329729098</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1531266694193017</v>
+        <v>0.1415511900728799</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3723489297455493</v>
+        <v>0.3702943920230113</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.6028894585300818</v>
+        <v>0.6045123003854206</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2959411692971716</v>
+        <v>0.2974220527002888</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9328665256588348</v>
+        <v>0.9345456709734118</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.262566757707042</v>
+        <v>1.253377415153609</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7320723488080816</v>
+        <v>0.7080598114891472</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3821163767701887</v>
+        <v>0.3619227139415616</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6375789052462137</v>
+        <v>0.6323510451699653</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3825722627706802</v>
+        <v>0.3729647132337162</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.6209902943964084</v>
+        <v>0.6053936053491379</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8791938272178886</v>
+        <v>0.8785700948124232</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5024740456125076</v>
+        <v>0.4978897183468481</v>
       </c>
     </row>
     <row r="22">
@@ -1296,7 +1296,7 @@
         <v>0.8778907399006316</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8353062173197394</v>
+        <v>0.8353062173197398</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.3523546374500927</v>
@@ -1305,7 +1305,7 @@
         <v>0.5659753568696209</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.548514402556036</v>
+        <v>0.5485144025560359</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.5180957251867497</v>
@@ -1314,7 +1314,7 @@
         <v>0.7179138037555898</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.6866805317610415</v>
+        <v>0.6866805317610416</v>
       </c>
     </row>
     <row r="23">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5871392291352745</v>
+        <v>0.5753254588725241</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7506721098711568</v>
+        <v>0.7389385515160696</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6966287754644209</v>
+        <v>0.6877929283969942</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2781912700057095</v>
+        <v>0.278624795241086</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4816383593432621</v>
+        <v>0.4750680038964656</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.462891395261557</v>
+        <v>0.462407226244815</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4449103405869091</v>
+        <v>0.4546167131684847</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.638259263611083</v>
+        <v>0.6323986872244326</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6086514587095949</v>
+        <v>0.609354105110176</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8129476297027034</v>
+        <v>0.8203572918185738</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.019715359078122</v>
+        <v>1.01502230622918</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9959826367628092</v>
+        <v>0.9787666601144233</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4478482775713397</v>
+        <v>0.4392323716119612</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6822692750920709</v>
+        <v>0.699309624897855</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6502710832721009</v>
+        <v>0.6496246226122158</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5920744689005595</v>
+        <v>0.5922145595391672</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8140836344145972</v>
+        <v>0.8022871711551434</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7912451093398095</v>
+        <v>0.7935842792111353</v>
       </c>
     </row>
     <row r="25">
@@ -1405,7 +1405,7 @@
         <v>0.6643955631916368</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.923544005054468</v>
+        <v>0.9235440050544681</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0.2726047188965526</v>
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6299501746407772</v>
+        <v>0.631432082409535</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.55952881307226</v>
+        <v>0.5618200235898442</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7823795924964885</v>
+        <v>0.7930370835375207</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.201404007109535</v>
+        <v>0.2069095447215054</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3006301329778407</v>
+        <v>0.292139548290262</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3141627541108148</v>
+        <v>0.3257500054865821</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.4303724784061183</v>
+        <v>0.434793913435243</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.4541449318719449</v>
+        <v>0.4447386941297942</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.5734190804043436</v>
+        <v>0.5731989006330541</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8706231099474461</v>
+        <v>0.9032941007270087</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.7854098025238369</v>
+        <v>0.7904993396987249</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.075149621695567</v>
+        <v>1.101065287784252</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3568806627538916</v>
+        <v>0.3578927754244161</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.4634491664209323</v>
+        <v>0.4563524016588706</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4719026141818755</v>
+        <v>0.4793095376936231</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.5838433256577674</v>
+        <v>0.5827577717777915</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.5893285863759841</v>
+        <v>0.586338324060678</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.7427127886988565</v>
+        <v>0.7416585218368992</v>
       </c>
     </row>
     <row r="28">
@@ -1514,7 +1514,7 @@
         <v>0.8679093332587087</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.8512399994228085</v>
+        <v>0.8512399994228084</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.3150886808138229</v>
@@ -1523,7 +1523,7 @@
         <v>0.4738082706421076</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.4188490539799597</v>
+        <v>0.4188490539799598</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.5313042352007041</v>
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6963301724009658</v>
+        <v>0.7012259944174507</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8039538441579487</v>
+        <v>0.8098955150585589</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7869935706724804</v>
+        <v>0.789956396529273</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2798002905046675</v>
+        <v>0.2802985003481666</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.4283249021816556</v>
+        <v>0.4297171832338383</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.382362070388309</v>
+        <v>0.381640539724425</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.4960508474084514</v>
+        <v>0.4961632837196648</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.6318162865633853</v>
+        <v>0.6325026131087881</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.5880909607579694</v>
+        <v>0.5921768597328166</v>
       </c>
     </row>
     <row r="30">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8122939984684105</v>
+        <v>0.8195510075503359</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9301232626607784</v>
+        <v>0.931064898845311</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9240702028758306</v>
+        <v>0.9270381479247086</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.3538551959038657</v>
+        <v>0.3489755510147259</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.5164253028536842</v>
+        <v>0.5159603748509736</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.4595516133241579</v>
+        <v>0.4598818092028901</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.5670285863433576</v>
+        <v>0.5678393860789039</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.7107739991901734</v>
+        <v>0.7030934561167846</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.6679262425084045</v>
+        <v>0.6690645550107632</v>
       </c>
     </row>
     <row r="31">
